--- a/tested.xlsx
+++ b/tested.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martijn\Documents\TU_Delft\Thesis\master-thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F344D8-B1C4-4BE7-93B7-423A90446536}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5A4509-B821-40BC-8EAC-8B89E3516E6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3D3C845A-B27F-4166-B711-D47C5A3E3412}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3D3C845A-B27F-4166-B711-D47C5A3E3412}"/>
   </bookViews>
   <sheets>
     <sheet name="Coverage" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -286,7 +286,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -294,10 +294,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="173" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="173" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF75DBD-029B-4DF1-ADC1-8A6F15276A18}">
   <dimension ref="A1:I185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="K180" sqref="K180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
